--- a/Data/VisaConfig.xlsx
+++ b/Data/VisaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\VISA POS CPD SETTLEMENT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989A6EB-F15F-48A1-AAFF-381EF47A9CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D590A97-FC91-4B7C-8562-167482D00B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -155,9 +155,6 @@
     <t>input_FileName</t>
   </si>
   <si>
-    <t>VISA_DownloadFolderPath</t>
-  </si>
-  <si>
     <t>DisputeEmailTo</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>VisaAddDays</t>
   </si>
   <si>
-    <t>Visa_AddDays</t>
-  </si>
-  <si>
     <t>VISA_ErrorEmailTo</t>
   </si>
   <si>
@@ -219,6 +213,21 @@
   </si>
   <si>
     <t>FinacleDB_Credentials</t>
+  </si>
+  <si>
+    <t>VISA_POSCPD_DownloadFolderPath</t>
+  </si>
+  <si>
+    <t>Visa_POSCPD_AddDays</t>
+  </si>
+  <si>
+    <t>Office365ApplicationID</t>
+  </si>
+  <si>
+    <t>Office365ApplicationSecret</t>
+  </si>
+  <si>
+    <t>Office365TenantID</t>
   </si>
 </sst>
 </file>
@@ -636,18 +645,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,7 +679,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +687,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,10 +783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D8F21-4660-448E-8C3A-0D2E91DB482A}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -814,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -825,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -836,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -847,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -855,18 +864,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -885,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -896,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -907,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -926,7 +935,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -934,26 +943,50 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
